--- a/config_2.9/prop_clear_server.xlsx
+++ b/config_2.9/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>id|行号</t>
   </si>
@@ -481,7 +481,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,12 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +603,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,11 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1005,16 +999,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18">
-        <v>1612224000</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1612799999</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="17">
+        <v>1612828800</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1613404799</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1583,16 +1577,16 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="11">
         <v>1611014400</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="11">
         <v>1611590399</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1600,16 +1594,16 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="11">
         <v>1611014400</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="11">
         <v>1611590399</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="10" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1617,16 +1611,16 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="11">
         <v>1611014400</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="11">
         <v>1611590399</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1634,18 +1628,76 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="11">
         <v>1611014400</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="11">
         <v>1611590399</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="10" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1612828800</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1613404799</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1612828800</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1613404799</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1612828800</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1613404799</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_2.9/prop_clear_server.xlsx
+++ b/config_2.9/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>id|行号</t>
   </si>
@@ -465,6 +465,14 @@
   </si>
   <si>
     <t>过大年--新字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +545,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +618,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,6 +674,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,6 +1879,23 @@
       </c>
       <c r="E53" s="18" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="20">
+        <v>1612828800</v>
+      </c>
+      <c r="D54" s="20">
+        <v>1613404799</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/prop_clear_server.xlsx
+++ b/config_2.9/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>id|行号</t>
   </si>
@@ -409,6 +409,62 @@
   </si>
   <si>
     <t>财字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_wn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--年字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--快字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--乐字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--万能字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖券--2.9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--新字符</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +537,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +554,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -600,16 +650,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,11 +938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,16 +1049,16 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>1612828800</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>1613404799</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1645,16 +1695,16 @@
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1662,16 +1712,16 @@
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1679,25 +1729,137 @@
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="11">
         <v>1612828800</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="11">
         <v>1613404799</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="7"/>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D51" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1612828800</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1613404799</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_2.9/prop_clear_server.xlsx
+++ b/config_2.9/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>id|行号</t>
   </si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>prop_fish_drop_act_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汤圆</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +626,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +688,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,8 +972,8 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1651,16 +1658,16 @@
       <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="11">
-        <v>1611014400</v>
-      </c>
-      <c r="D40" s="11">
-        <v>1611590399</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="C40" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1668,16 +1675,16 @@
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="11">
-        <v>1611014400</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1611590399</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="C41" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1685,16 +1692,16 @@
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="11">
-        <v>1611014400</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1611590399</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="C42" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1702,16 +1709,16 @@
       <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="11">
-        <v>1611014400</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1611590399</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="C43" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="D43" s="20">
+        <v>1614009599</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1865,7 +1872,7 @@
         <v>1614614399</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/prop_clear_server.xlsx
+++ b/config_2.9/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>id|行号</t>
   </si>
@@ -473,6 +473,10 @@
   </si>
   <si>
     <t>金元宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1895,6 +1899,23 @@
         <v>1613404799</v>
       </c>
       <c r="E54" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="20">
+        <v>1614038400</v>
+      </c>
+      <c r="D55" s="20">
+        <v>1614614399</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>103</v>
       </c>
     </row>

--- a/config_2.9/prop_clear_server.xlsx
+++ b/config_2.9/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>id|行号</t>
   </si>
@@ -962,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1715,55 +1715,55 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="11">
+      <c r="B44" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="16">
         <v>1612828800</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="16">
         <v>1613404799</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E44" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="11">
+      <c r="B45" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="16">
         <v>1612828800</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="16">
         <v>1613404799</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E45" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="11">
+      <c r="B46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="16">
         <v>1612828800</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="16">
         <v>1613404799</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>79</v>
+      <c r="E46" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1771,7 +1771,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C47" s="16">
         <v>1612828800</v>
@@ -1780,7 +1780,7 @@
         <v>1613404799</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1788,7 +1788,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C48" s="16">
         <v>1612828800</v>
@@ -1797,7 +1797,7 @@
         <v>1613404799</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C49" s="16">
         <v>1612828800</v>
@@ -1814,7 +1814,7 @@
         <v>1613404799</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -1822,7 +1822,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C50" s="16">
         <v>1612828800</v>
@@ -1831,91 +1831,40 @@
         <v>1613404799</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="16">
+      <c r="B51" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="20">
         <v>1612828800</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="20">
         <v>1613404799</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E51" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D52" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="16">
-        <v>1612828800</v>
-      </c>
-      <c r="D53" s="16">
-        <v>1613404799</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="8">
-        <v>53</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="D54" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="19" t="s">
+      <c r="B52" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C52" s="20">
         <v>1614038400</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D52" s="20">
         <v>1614614399</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>103</v>
       </c>
     </row>
